--- a/misc/theremin-v1-bom.xlsx
+++ b/misc/theremin-v1-bom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{66887C58-EE39-43AC-9C90-FDCE9C6BB85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F0B5496-C756-4FE9-908B-6C45365D3EBB}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{66887C58-EE39-43AC-9C90-FDCE9C6BB85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9248032E-B1C4-4F16-9276-A33579C8A910}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>PCB</t>
   </si>
@@ -78,10 +78,91 @@
     <t>LDR Cell, KM store</t>
   </si>
   <si>
-    <t>Hot glue or foam tape for battery and speaker, KM</t>
-  </si>
-  <si>
     <t>SPDT slide switch, KM store</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01BB4YMCU/ref=ppx_yo_dt_b_search_asin_image?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33022646609.html?spm=a2g0s.9042311.0.0.567a4c4dAAs0Fj</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32373712363.html?spm=a2g0s.9042311.0.0.567a4c4dAAs0Fj</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32602493357.html?spm=a2g0s.9042311.0.0.567a4c4dAAs0Fj</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/4000834418510.html?spm=a2g0s.9042311.0.0.567a4c4dAAs0Fj</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32962861159.html?spm=a2g0s.9042311.0.0.567a4c4dAAs0Fj</t>
+  </si>
+  <si>
+    <t>9V Battery Clip</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>R1, R2, R4</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>C2, C4</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>U1, U2</t>
+  </si>
+  <si>
+    <t>C3, C5</t>
+  </si>
+  <si>
+    <t>Solder, 0.015"</t>
+  </si>
+  <si>
+    <t>Solder wick</t>
+  </si>
+  <si>
+    <t>Extra practice SMT parts</t>
+  </si>
+  <si>
+    <t>Ray's stock</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Marking</t>
+  </si>
+  <si>
+    <t>NE555</t>
+  </si>
+  <si>
+    <t>Extra practice PCB components</t>
+  </si>
+  <si>
+    <t>Extra practice PCB</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R3, R5</t>
+  </si>
+  <si>
+    <t>100 ohm resistor, 1206</t>
   </si>
 </sst>
 </file>
@@ -145,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -165,6 +246,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,253 +536,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D13" si="0">C3*A3</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F15" si="0">E3*A3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
-        <f>1.36/100</f>
-        <v>1.3600000000000001E-2</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="D6" s="10">
+        <v>102</v>
+      </c>
+      <c r="E6" s="11">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
-        <f>2.5/20</f>
-        <v>0.125</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6">
-        <f>1.69/100</f>
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>1.6899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11">
+        <f>2.62/20</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7:F8" si="1">E7*A7</f>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6">
-        <f>1.69/100</f>
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>3.3799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11">
+        <f>1.08/50</f>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6">
-        <f>1.87/100</f>
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11">
+        <f>2.62/20</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>3.7400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6">
-        <f>1.87/100</f>
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11">
+        <f>1.71/100</f>
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>1.8700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11">
+        <f>(0.85+1.05)/100</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
-        <f>2.17/100</f>
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="11">
+        <f>2.38/100</f>
+        <v>2.3799999999999998E-2</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>4.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+        <v>4.7599999999999996E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="11">
         <f>11.69/6</f>
         <v>1.9483333333333333</v>
       </c>
-      <c r="D12" s="6">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>1.9483333333333333</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" ref="D14" si="1">C14*A14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" ref="D15" si="2">C15*A15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16" si="2">E16*A16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17:F18" si="3">E17*A17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F21" si="4">E19*A19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20" si="5">E20*A20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="8">
-        <f>SUM(D3:D16)</f>
-        <v>3.7893333333333334</v>
+      <c r="F23" s="8">
+        <f>SUM(F3:F22)</f>
+        <v>5.2166333333333332</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>